--- a/dane_kutno/Staniny.xlsx
+++ b/dane_kutno/Staniny.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D222179B-17F2-4400-93B6-2D415EF572F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="2023" sheetId="3" r:id="rId2"/>
+    <sheet name="2022" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="33">
   <si>
     <t>SZKOŁA PODSTAWOWA NR 5 IM. HENRYKA SIENKIEWICZA</t>
   </si>
@@ -118,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,12 +236,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -239,6 +252,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -248,18 +268,11 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 2" xfId="2"/>
-    <cellStyle name="Normalny 3" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normalny 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -291,7 +304,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -329,7 +348,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -356,9 +381,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -396,9 +421,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,7 +458,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,7 +493,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -641,22 +666,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B9:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="65.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="65.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -669,12 +694,12 @@
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1">
@@ -686,13 +711,13 @@
       <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="7">
         <f>SUM(C10:E10)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
@@ -704,13 +729,13 @@
       <c r="E11" s="1">
         <v>6</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="7">
         <f t="shared" ref="F11:F16" si="0">SUM(C11:E11)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -722,13 +747,13 @@
       <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="1">
@@ -740,13 +765,13 @@
       <c r="E13" s="1">
         <v>7</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1">
@@ -758,13 +783,13 @@
       <c r="E14" s="1">
         <v>5</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1">
@@ -776,13 +801,13 @@
       <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1">
@@ -794,40 +819,12 @@
       <c r="E16" s="1">
         <v>6</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
@@ -840,12 +837,12 @@
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="1">
@@ -857,13 +854,13 @@
       <c r="E23" s="1">
         <v>6</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="7">
         <f>SUM(C23:E23)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="1">
@@ -875,13 +872,13 @@
       <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="7">
         <f t="shared" ref="F24:F29" si="1">SUM(C24:E24)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="1">
@@ -893,13 +890,13 @@
       <c r="E25" s="1">
         <v>4</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="7">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="1">
@@ -911,13 +908,13 @@
       <c r="E26" s="1">
         <v>6</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="7">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1">
@@ -929,13 +926,13 @@
       <c r="E27" s="1">
         <v>7</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="7">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1">
@@ -947,13 +944,13 @@
       <c r="E28" s="1">
         <v>6</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="7">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="1">
@@ -965,17 +962,17 @@
       <c r="E29" s="1">
         <v>7</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="7">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="13">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="10" t="s">
         <v>29</v>
       </c>
@@ -1022,63 +1019,63 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
+    <row r="40" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="M40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="8" t="s">
+      <c r="N40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="8" t="s">
+      <c r="O40" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P40" s="8" t="s">
+      <c r="P40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q40" s="8" t="s">
+      <c r="Q40" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R40" s="8" t="s">
+      <c r="R40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S40" s="8" t="s">
+      <c r="S40" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1088,53 +1085,53 @@
       <c r="D41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="3">
         <v>23</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="3">
         <v>51.217391304347828</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="3">
         <v>17.465385696930174</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="3">
         <v>49</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="3">
         <v>49</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="3">
         <v>23</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="3">
         <v>46.434782608695649</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="3">
         <v>26.049828651621262</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="3">
         <v>48</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="3">
         <v>24</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="3">
         <v>25</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41" s="3">
         <v>57.72</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="Q41" s="3">
         <v>30.812361155873791</v>
       </c>
-      <c r="R41" s="6">
+      <c r="R41" s="3">
         <v>51</v>
       </c>
-      <c r="S41" s="6">
+      <c r="S41" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1144,53 +1141,53 @@
       <c r="D42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="3">
         <v>158</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="3">
         <v>60.417721518987342</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="3">
         <v>15.601937233607748</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="3">
         <v>62</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="3">
         <v>69</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="3">
         <v>158</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="3">
         <v>57.037974683544306</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="3">
         <v>28.672503936246006</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="3">
         <v>56</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="3">
         <v>100</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="3">
         <v>157</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="3">
         <v>75.044585987261144</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="Q42" s="3">
         <v>27.04309934679867</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R42" s="3">
         <v>87</v>
       </c>
-      <c r="S42" s="6">
+      <c r="S42" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
@@ -1200,53 +1197,53 @@
       <c r="D43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="3">
         <v>120</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="3">
         <v>61.991666666666667</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="3">
         <v>13.580314081624017</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="3">
         <v>64</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="3">
         <v>71</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="3">
         <v>120</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="3">
         <v>59.866666666666667</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="3">
         <v>28.532710273571197</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="3">
         <v>62</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="3">
         <v>88</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="3">
         <v>119</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P43" s="3">
         <v>73.168067226890756</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="Q43" s="3">
         <v>28.989224114346065</v>
       </c>
-      <c r="R43" s="6">
+      <c r="R43" s="3">
         <v>87</v>
       </c>
-      <c r="S43" s="6">
+      <c r="S43" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1256,53 +1253,53 @@
       <c r="D44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="3">
         <v>80</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="3">
         <v>58.037500000000001</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="3">
         <v>13.597282586973028</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="3">
         <v>60</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="3">
         <v>60</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="3">
         <v>80</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="3">
         <v>55.05</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="3">
         <v>30.765199495533913</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="3">
         <v>56</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="3">
         <v>16</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="3">
         <v>80</v>
       </c>
-      <c r="P44" s="6">
+      <c r="P44" s="3">
         <v>66.099999999999994</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="Q44" s="3">
         <v>29.949373950051111</v>
       </c>
-      <c r="R44" s="6">
+      <c r="R44" s="3">
         <v>75.5</v>
       </c>
-      <c r="S44" s="6">
+      <c r="S44" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>2</v>
       </c>
@@ -1312,53 +1309,53 @@
       <c r="D45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="3">
         <v>42</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="3">
         <v>59.047619047619051</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="3">
         <v>17.369859473829649</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="3">
         <v>59</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="3">
         <v>64</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="3">
         <v>42</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="3">
         <v>36.476190476190474</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="3">
         <v>27.328023376709936</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="3">
         <v>26</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="3">
         <v>12</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="3">
         <v>43</v>
       </c>
-      <c r="P45" s="6">
+      <c r="P45" s="3">
         <v>47.558139534883722</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="Q45" s="3">
         <v>28.473000124215108</v>
       </c>
-      <c r="R45" s="6">
+      <c r="R45" s="3">
         <v>36</v>
       </c>
-      <c r="S45" s="6">
+      <c r="S45" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
@@ -1368,53 +1365,53 @@
       <c r="D46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="3">
         <v>39</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="3">
         <v>58.410256410256409</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="3">
         <v>16.365564141753364</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="3">
         <v>62</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="3">
         <v>64</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="3">
         <v>39</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="3">
         <v>60.102564102564102</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="3">
         <v>25.516002893905387</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46" s="3">
         <v>64</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="3">
         <v>68</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="3">
         <v>39</v>
       </c>
-      <c r="P46" s="6">
+      <c r="P46" s="3">
         <v>73.743589743589737</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="Q46" s="3">
         <v>26.154097535242389</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R46" s="3">
         <v>82</v>
       </c>
-      <c r="S46" s="6">
+      <c r="S46" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -1424,58 +1421,58 @@
       <c r="D47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="3">
         <v>31</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="3">
         <v>59.838709677419352</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="3">
         <v>16.642535426786441</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="3">
         <v>62</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="3">
         <v>56</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="3">
         <v>31</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="3">
         <v>60</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="3">
         <v>27.750036326625455</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M47" s="3">
         <v>64</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47" s="3">
         <v>52</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47" s="3">
         <v>31</v>
       </c>
-      <c r="P47" s="6">
+      <c r="P47" s="3">
         <v>70.935483870967744</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="Q47" s="3">
         <v>33.911588545349723</v>
       </c>
-      <c r="R47" s="6">
+      <c r="R47" s="3">
         <v>93</v>
       </c>
-      <c r="S47" s="6">
+      <c r="S47" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="13">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B49" s="8">
         <v>2023</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="10" t="s">
         <v>29</v>
       </c>
@@ -1522,63 +1519,63 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="2:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
+    <row r="50" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="I50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="L50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M50" s="9" t="s">
+      <c r="M50" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N50" s="9" t="s">
+      <c r="N50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O50" s="9" t="s">
+      <c r="O50" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P50" s="9" t="s">
+      <c r="P50" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q50" s="9" t="s">
+      <c r="Q50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R50" s="9" t="s">
+      <c r="R50" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S50" s="9" t="s">
+      <c r="S50" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>6</v>
       </c>
@@ -1588,53 +1585,53 @@
       <c r="D51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="3">
         <v>24</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="3">
         <v>67.916666666666671</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="3">
         <v>11.831866106221604</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="3">
         <v>70</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="3">
         <v>78</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="3">
         <v>24</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="3">
         <v>50.5</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51" s="3">
         <v>27.611893572637623</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M51" s="3">
         <v>52</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N51" s="3">
         <v>32</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O51" s="3">
         <v>24</v>
       </c>
-      <c r="P51" s="6">
+      <c r="P51" s="3">
         <v>70.125</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="Q51" s="3">
         <v>24.194201268072479</v>
       </c>
-      <c r="R51" s="6">
+      <c r="R51" s="3">
         <v>78</v>
       </c>
-      <c r="S51" s="6">
+      <c r="S51" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>4</v>
       </c>
@@ -1644,53 +1641,53 @@
       <c r="D52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="3">
         <v>191</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="3">
         <v>65.7434554973822</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="3">
         <v>16.882164652303796</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="3">
         <v>69</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="3">
         <v>76</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="3">
         <v>191</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="3">
         <v>49.591623036649217</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L52" s="3">
         <v>29.416324366762218</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M52" s="3">
         <v>44</v>
       </c>
-      <c r="N52" s="6">
+      <c r="N52" s="3">
         <v>24</v>
       </c>
-      <c r="O52" s="6">
+      <c r="O52" s="3">
         <v>194</v>
       </c>
-      <c r="P52" s="6">
+      <c r="P52" s="3">
         <v>66.530927835051543</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="Q52" s="3">
         <v>28.935968630450592</v>
       </c>
-      <c r="R52" s="6">
+      <c r="R52" s="3">
         <v>78</v>
       </c>
-      <c r="S52" s="6">
+      <c r="S52" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>3</v>
       </c>
@@ -1700,53 +1697,53 @@
       <c r="D53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="3">
         <v>117</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="3">
         <v>62.914529914529915</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="3">
         <v>15.493352668669614</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="3">
         <v>64</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="3">
         <v>62</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="3">
         <v>118</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="3">
         <v>53.457627118644069</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L53" s="3">
         <v>26.856380130082091</v>
       </c>
-      <c r="M53" s="6">
+      <c r="M53" s="3">
         <v>56</v>
       </c>
-      <c r="N53" s="6">
+      <c r="N53" s="3">
         <v>68</v>
       </c>
-      <c r="O53" s="6">
+      <c r="O53" s="3">
         <v>117</v>
       </c>
-      <c r="P53" s="6">
+      <c r="P53" s="3">
         <v>71.504273504273499</v>
       </c>
-      <c r="Q53" s="6">
+      <c r="Q53" s="3">
         <v>26.838110398672796</v>
       </c>
-      <c r="R53" s="6">
+      <c r="R53" s="3">
         <v>84</v>
       </c>
-      <c r="S53" s="6">
+      <c r="S53" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>1</v>
       </c>
@@ -1756,53 +1753,53 @@
       <c r="D54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="3">
         <v>84</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="3">
         <v>66.928571428571431</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="3">
         <v>15.24231712347296</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="3">
         <v>70</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="3">
         <v>71</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="3">
         <v>84</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="3">
         <v>60.857142857142854</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L54" s="3">
         <v>26.273806826763188</v>
       </c>
-      <c r="M54" s="6">
+      <c r="M54" s="3">
         <v>68</v>
       </c>
-      <c r="N54" s="6">
+      <c r="N54" s="3">
         <v>68</v>
       </c>
-      <c r="O54" s="6">
+      <c r="O54" s="3">
         <v>85</v>
       </c>
-      <c r="P54" s="6">
+      <c r="P54" s="3">
         <v>73.152941176470591</v>
       </c>
-      <c r="Q54" s="6">
+      <c r="Q54" s="3">
         <v>24.970809255586662</v>
       </c>
-      <c r="R54" s="6">
+      <c r="R54" s="3">
         <v>82</v>
       </c>
-      <c r="S54" s="6">
+      <c r="S54" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>2</v>
       </c>
@@ -1812,53 +1809,53 @@
       <c r="D55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="3">
         <v>54</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="3">
         <v>63.944444444444443</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="3">
         <v>12.92774315995938</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="3">
         <v>63</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="3">
         <v>58</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="3">
         <v>54</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="3">
         <v>38.814814814814817</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L55" s="3">
         <v>24.629156219343319</v>
       </c>
-      <c r="M55" s="6">
+      <c r="M55" s="3">
         <v>32</v>
       </c>
-      <c r="N55" s="6">
+      <c r="N55" s="3">
         <v>24</v>
       </c>
-      <c r="O55" s="6">
+      <c r="O55" s="3">
         <v>54</v>
       </c>
-      <c r="P55" s="6">
+      <c r="P55" s="3">
         <v>56.666666666666664</v>
       </c>
-      <c r="Q55" s="6">
+      <c r="Q55" s="3">
         <v>29.565996484951221</v>
       </c>
-      <c r="R55" s="6">
+      <c r="R55" s="3">
         <v>58</v>
       </c>
-      <c r="S55" s="6">
+      <c r="S55" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
@@ -1868,53 +1865,53 @@
       <c r="D56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="3">
         <v>28</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="3">
         <v>60.535714285714285</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="3">
         <v>18.916134728353583</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="3">
         <v>64.5</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="3">
         <v>56</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="3">
         <v>28</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="3">
         <v>50.714285714285715</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L56" s="3">
         <v>29.491956703550237</v>
       </c>
-      <c r="M56" s="6">
+      <c r="M56" s="3">
         <v>46</v>
       </c>
-      <c r="N56" s="6">
+      <c r="N56" s="3">
         <v>16</v>
       </c>
-      <c r="O56" s="6">
+      <c r="O56" s="3">
         <v>28</v>
       </c>
-      <c r="P56" s="6">
+      <c r="P56" s="3">
         <v>66.142857142857139</v>
       </c>
-      <c r="Q56" s="6">
+      <c r="Q56" s="3">
         <v>28.471432155400823</v>
       </c>
-      <c r="R56" s="6">
+      <c r="R56" s="3">
         <v>78.5</v>
       </c>
-      <c r="S56" s="6">
+      <c r="S56" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -1924,49 +1921,49 @@
       <c r="D57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="3">
         <v>17</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="3">
         <v>56.588235294117645</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="3">
         <v>17.098533901820222</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="3">
         <v>60</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="3">
         <v>60</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="3">
         <v>17</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="3">
         <v>42.117647058823529</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L57" s="3">
         <v>17.197408672585041</v>
       </c>
-      <c r="M57" s="6">
+      <c r="M57" s="3">
         <v>36</v>
       </c>
-      <c r="N57" s="6">
+      <c r="N57" s="3">
         <v>32</v>
       </c>
-      <c r="O57" s="6">
+      <c r="O57" s="3">
         <v>17</v>
       </c>
-      <c r="P57" s="6">
+      <c r="P57" s="3">
         <v>65</v>
       </c>
-      <c r="Q57" s="6">
+      <c r="Q57" s="3">
         <v>28.431548342931841</v>
       </c>
-      <c r="R57" s="6">
+      <c r="R57" s="3">
         <v>84</v>
       </c>
-      <c r="S57" s="6">
+      <c r="S57" s="3">
         <v>93</v>
       </c>
     </row>
@@ -1987,7 +1984,343 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9C04CE-B3D6-406F-A0CF-60EAE81C416B}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7">
+        <f>SUM(B2:D2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E8" si="0">SUM(B3:D3)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21731981-9382-4466-B07E-8C5E407168EF}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7">
+        <f>SUM(B2:D2)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E8" si="0">SUM(B3:D3)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="56aace9d-0078-436c-b0cd-e391ea787757" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cee2f711-3d12-493e-b67a-49f03a45d6c8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Hiper_x0142__x0105_cze xmlns="cee2f711-3d12-493e-b67a-49f03a45d6c8">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Hiper_x0142__x0105_cze>
+    <_Flow_SignoffStatus xmlns="cee2f711-3d12-493e-b67a-49f03a45d6c8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009549D3D9FEC9DE498E1599B9F0A8918F" ma:contentTypeVersion="19" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="78cfe45a98f6f8a08d9adbbdf448870a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cee2f711-3d12-493e-b67a-49f03a45d6c8" xmlns:ns3="56aace9d-0078-436c-b0cd-e391ea787757" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54176b28e2aadeb7763e6d52ed310cb3" ns2:_="" ns3:_="">
     <xsd:import namespace="cee2f711-3d12-493e-b67a-49f03a45d6c8"/>
@@ -2255,7 +2588,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2264,30 +2597,40 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="56aace9d-0078-436c-b0cd-e391ea787757" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cee2f711-3d12-493e-b67a-49f03a45d6c8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Hiper_x0142__x0105_cze xmlns="cee2f711-3d12-493e-b67a-49f03a45d6c8">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Hiper_x0142__x0105_cze>
-    <_Flow_SignoffStatus xmlns="cee2f711-3d12-493e-b67a-49f03a45d6c8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC550F0C-8118-4290-A154-47C488345BCB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00B368F8-A3C8-4B2D-B6AF-723AEC792D51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="56aace9d-0078-436c-b0cd-e391ea787757"/>
+    <ds:schemaRef ds:uri="cee2f711-3d12-493e-b67a-49f03a45d6c8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96D5ECF7-BF0E-4B94-B0E1-18B55FC03647}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC550F0C-8118-4290-A154-47C488345BCB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cee2f711-3d12-493e-b67a-49f03a45d6c8"/>
+    <ds:schemaRef ds:uri="56aace9d-0078-436c-b0cd-e391ea787757"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00B368F8-A3C8-4B2D-B6AF-723AEC792D51}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96D5ECF7-BF0E-4B94-B0E1-18B55FC03647}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>